--- a/0-doc_templates/tracker.xlsx
+++ b/0-doc_templates/tracker.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\porto\MBG\0-doc_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A9139B-8762-4639-8ABB-F651E9B8C5E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399393F0-150E-4F8F-A2A6-A3348719966A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0A79F95E-6CEF-4CCD-9CB9-E7B11E3BC837}"/>
+    <workbookView xWindow="8205" yWindow="4185" windowWidth="15360" windowHeight="11295" xr2:uid="{0A79F95E-6CEF-4CCD-9CB9-E7B11E3BC837}"/>
   </bookViews>
   <sheets>
-    <sheet name="index" sheetId="10" r:id="rId1"/>
+    <sheet name="input" sheetId="11" r:id="rId1"/>
+    <sheet name="tracker" sheetId="10" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>Perusahaan</t>
   </si>
@@ -63,41 +64,46 @@
     <t>Job Portal URI</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>Peru Email</t>
-  </si>
-  <si>
-    <t>Pos Email</t>
-  </si>
-  <si>
-    <t>Sum Email</t>
-  </si>
-  <si>
-    <t>10/01/2026</t>
-  </si>
-  <si>
-    <t>Email Terkirim</t>
-  </si>
-  <si>
-    <t>D:\porto\MBG\1-doc_formatted\\email\cover_letter_Peru Email.pdf</t>
-  </si>
-  <si>
-    <t>D:\porto\MBG\1-doc_formatted\cv.pdf</t>
-  </si>
-  <si>
-    <t>celguek@gmail.com</t>
+    <t>I Can Read</t>
+  </si>
+  <si>
+    <t>Customer Support Officer (CSO)</t>
+  </si>
+  <si>
+    <t>akun instagram lokersmg</t>
+  </si>
+  <si>
+    <t>Subjek</t>
+  </si>
+  <si>
+    <t>marezza.bahariyani@icanread.asia</t>
+  </si>
+  <si>
+    <t>Application - Customer Support Officer (CSO)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
@@ -119,13 +125,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -437,11 +448,93 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8B2293D-857B-49A0-A432-42EB9EC4CB95}">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C9F0C55-87EF-4A81-BAB2-8BC5529E6949}">
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35" customWidth="1"/>
+    <col min="7" max="7" width="31.42578125" customWidth="1"/>
+    <col min="8" max="8" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1">
+        <v>46036</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{847A726A-69A3-484B-9C63-74C852A83134}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8B2293D-857B-49A0-A432-42EB9EC4CB95}">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,72 +542,44 @@
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="56.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="43.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>